--- a/Crawling/crawling_data/day_genie/day_genie_20220115.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
   <si>
     <t>날짜</t>
   </si>
@@ -175,8 +175,7 @@
     <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>Tiny Riot</t>
@@ -218,8 +217,7 @@
     <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
@@ -622,9 +620,6 @@
   </si>
   <si>
     <t>Red Moon : Beyond The Light</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>The Sun's Gonna Rise</t>
@@ -1909,7 +1904,7 @@
         <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1926,7 +1921,7 @@
         <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1943,7 +1938,7 @@
         <v>111</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1960,7 +1955,7 @@
         <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1977,7 +1972,7 @@
         <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1994,7 +1989,7 @@
         <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2011,7 +2006,7 @@
         <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2062,7 +2057,7 @@
         <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2079,7 +2074,7 @@
         <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2096,7 +2091,7 @@
         <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2130,7 +2125,7 @@
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2147,7 +2142,7 @@
         <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2164,7 +2159,7 @@
         <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2181,7 +2176,7 @@
         <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2198,7 +2193,7 @@
         <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2215,7 +2210,7 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2232,7 +2227,7 @@
         <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2249,7 +2244,7 @@
         <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2283,7 +2278,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2300,7 +2295,7 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2317,7 +2312,7 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2368,7 +2363,7 @@
         <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2402,7 +2397,7 @@
         <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2436,7 +2431,7 @@
         <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2470,7 +2465,7 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2521,7 +2516,7 @@
         <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2606,7 +2601,7 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2640,7 +2635,7 @@
         <v>168</v>
       </c>
       <c r="E92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2657,7 +2652,7 @@
         <v>132</v>
       </c>
       <c r="E93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2691,7 +2686,7 @@
         <v>170</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2742,7 +2737,7 @@
         <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2759,7 +2754,7 @@
         <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:5">
